--- a/static/excels/User.xlsx
+++ b/static/excels/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\wtp\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41ADC2-850E-4E5E-AADD-B7270CCFF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28B620B-3660-4216-BD06-30407CCEE2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -9828,9 +9828,6 @@
     <t>salutation</t>
   </si>
   <si>
-    <t>jobtitle</t>
-  </si>
-  <si>
     <t>company</t>
   </si>
   <si>
@@ -9904,6 +9901,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>job_title</t>
   </si>
 </sst>
 </file>
@@ -10283,7 +10283,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10296,25 +10296,25 @@
         <v>3266</v>
       </c>
       <c r="B1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1" t="s">
         <v>3272</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3273</v>
       </c>
       <c r="D1" t="s">
         <v>3003</v>
       </c>
       <c r="E1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F1" t="s">
         <v>3267</v>
       </c>
-      <c r="F1" t="s">
-        <v>3268</v>
-      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -10351,140 +10351,140 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B3" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C3" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="E3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F3" t="s">
         <v>3291</v>
       </c>
-      <c r="F3" t="s">
-        <v>3292</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B4" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C4" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2503</v>
       </c>
       <c r="E4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F4" t="s">
         <v>3291</v>
       </c>
-      <c r="F4" t="s">
-        <v>3292</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B5" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C5" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E5" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F5" t="s">
         <v>3291</v>
       </c>
-      <c r="F5" t="s">
-        <v>3292</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B6" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="C6" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="E6" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F6" t="s">
         <v>3291</v>
       </c>
-      <c r="F6" t="s">
-        <v>3292</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B7" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="C7" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="E7" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F7" t="s">
         <v>3291</v>
       </c>
-      <c r="F7" t="s">
-        <v>3292</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B8" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="C8" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E8" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F8" t="s">
         <v>3291</v>
       </c>
-      <c r="F8" t="s">
-        <v>3292</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -12781,7 +12781,7 @@
         <v>524</v>
       </c>
       <c r="H90" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B109" t="s">
         <v>623</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B114" t="s">
         <v>653</v>
@@ -13623,7 +13623,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B121" t="s">
         <v>693</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B123" t="s">
         <v>702</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B125" t="s">
         <v>713</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B129" t="s">
         <v>735</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B130" t="s">
         <v>739</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B140" t="s">
         <v>799</v>
@@ -14290,7 +14290,7 @@
         <v>822</v>
       </c>
       <c r="H144" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>870</v>
       </c>
       <c r="H153" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14591,7 +14591,7 @@
         <v>875</v>
       </c>
       <c r="H155" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>888</v>
       </c>
       <c r="H158" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B192" t="s">
         <v>1091</v>
@@ -15639,7 +15639,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B193" t="s">
         <v>1093</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B194" t="s">
         <v>1095</v>
@@ -15697,7 +15697,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B195" t="s">
         <v>1097</v>
@@ -15813,7 +15813,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B199" t="s">
         <v>1112</v>
